--- a/data/trans_camb/P12_1_R-Dificultad-trans_camb.xlsx
+++ b/data/trans_camb/P12_1_R-Dificultad-trans_camb.xlsx
@@ -646,7 +646,7 @@
         <v>-7.487774492541622</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>-6.678380511925114</v>
+        <v>-6.678380511925116</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>2.039365179425567</v>
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-11.73053876305248</v>
+        <v>-11.30618338433797</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-11.41955876904719</v>
+        <v>-11.92098736038957</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-11.79153348907198</v>
+        <v>-11.25528302076866</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-1.932452585092225</v>
+        <v>-1.928396326401113</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-8.244192904836654</v>
+        <v>-8.209053926885208</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-3.969534589653918</v>
+        <v>-3.12134324350683</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-5.614334513167144</v>
+        <v>-5.186944421512678</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-9.149809738440418</v>
+        <v>-8.988392700166871</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-5.507223401019086</v>
+        <v>-5.720912323103016</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>-2.811141706333136</v>
+        <v>-2.726292596124403</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>-3.257972078153769</v>
+        <v>-3.314329310055722</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>-1.518900944286585</v>
+        <v>-1.047054773705323</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>5.993460645778698</v>
+        <v>6.604390900349596</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>-0.9258018922752024</v>
+        <v>-0.8778269277425442</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>5.23175530897775</v>
+        <v>5.599850340062891</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.2876131314392794</v>
+        <v>0.5359991947238206</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>-3.473479939065764</v>
+        <v>-3.414661525484724</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.8630757991079103</v>
+        <v>0.7082724486654309</v>
       </c>
     </row>
     <row r="7">
@@ -751,7 +751,7 @@
         <v>-0.2994737067054394</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>-0.267101976520224</v>
+        <v>-0.2671019765202241</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>0.07667390632863443</v>
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.4184330360135067</v>
+        <v>-0.4050027258261384</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.419240132447145</v>
+        <v>-0.4249512754752756</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.4251129417852642</v>
+        <v>-0.4152783122831419</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.06750726263222578</v>
+        <v>-0.06488263694985875</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.2891651768898122</v>
+        <v>-0.2893046235258505</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.1382389526323551</v>
+        <v>-0.1108258882122667</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.2040914366102765</v>
+        <v>-0.1852698652914061</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.3297348691728999</v>
+        <v>-0.3217779691995881</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.2043487894696758</v>
+        <v>-0.2037783764246119</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>-0.1261363108520917</v>
+        <v>-0.1202097364182222</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>-0.1453379239682887</v>
+        <v>-0.1500122726190054</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>-0.05658349646906471</v>
+        <v>-0.04153326314545373</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.2510325673100044</v>
+        <v>0.2716313642717768</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>-0.03991207443827729</v>
+        <v>-0.03485693710108089</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.2152505897984756</v>
+        <v>0.2367009079417491</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.009106626600487158</v>
+        <v>0.0236877106991058</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>-0.1406566807555807</v>
+        <v>-0.1367139280127826</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.03349301132262711</v>
+        <v>0.03226513787915983</v>
       </c>
     </row>
     <row r="10">
@@ -860,7 +860,7 @@
         <v>-6.178715446607229</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>-6.110954465768746</v>
+        <v>-6.110954465768748</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>5.138523089258573</v>
@@ -878,7 +878,7 @@
         <v>-7.222698761061968</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>-6.281892932902319</v>
+        <v>-6.281892932902322</v>
       </c>
     </row>
     <row r="11">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-1.881327386377722</v>
+        <v>-2.252104619423347</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-9.292421425895094</v>
+        <v>-9.147107958421669</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-8.975590896459746</v>
+        <v>-9.096369395521307</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>1.473457750056899</v>
+        <v>1.276077022714408</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-11.53046520840261</v>
+        <v>-12.08267999757667</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-10.1423768875928</v>
+        <v>-10.02008057105857</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.8970791525330686</v>
+        <v>0.902645821226753</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-9.474116470374527</v>
+        <v>-9.589691404619927</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-8.374898903543119</v>
+        <v>-8.307662474071162</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>4.478422394777504</v>
+        <v>4.812285405840335</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>-3.176211531379259</v>
+        <v>-3.208489104903444</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>-3.044687473228461</v>
+        <v>-2.964093592367495</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>8.74943627594916</v>
+        <v>9.127108140832711</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>-5.058490500376555</v>
+        <v>-5.065413009993505</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>-3.993796030917639</v>
+        <v>-3.714307667952578</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>6.209391472536033</v>
+        <v>6.074519550638128</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>-4.680085319850931</v>
+        <v>-4.981364045004725</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>-4.109571482571588</v>
+        <v>-4.036954599160816</v>
       </c>
     </row>
     <row r="13">
@@ -965,7 +965,7 @@
         <v>-0.3693282753571211</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>-0.3652779114253551</v>
+        <v>-0.3652779114253552</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>0.231393902640835</v>
@@ -983,7 +983,7 @@
         <v>-0.3714977478719755</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>-0.3231076297307685</v>
+        <v>-0.3231076297307686</v>
       </c>
     </row>
     <row r="14">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.1035674246715638</v>
+        <v>-0.1231819281534679</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.5065937841141026</v>
+        <v>-0.4944315579346847</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.4922150372912671</v>
+        <v>-0.5023741904974151</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0.05952241261162005</v>
+        <v>0.05199701606791406</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.4813464213036691</v>
+        <v>-0.4882290452432437</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.4113899214753959</v>
+        <v>-0.4126304662077406</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.0451428809280232</v>
+        <v>0.04327385050842603</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.4615745778851448</v>
+        <v>-0.4639515121669014</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.4055353120182307</v>
+        <v>-0.4084439476690186</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.2935135981824012</v>
+        <v>0.3151652387091261</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>-0.2027102007267615</v>
+        <v>-0.2056610831417411</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>-0.1974044923333944</v>
+        <v>-0.1956013022722518</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.4290841887940654</v>
+        <v>0.4445286832404428</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>-0.2394803739121829</v>
+        <v>-0.2368512652926064</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>-0.1919325206396432</v>
+        <v>-0.1847359932930156</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3430698424139593</v>
+        <v>0.3302874968615376</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>-0.2604599163487724</v>
+        <v>-0.276555100519475</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>-0.2258069886333539</v>
+        <v>-0.2234301294007379</v>
       </c>
     </row>
     <row r="16">
@@ -1083,7 +1083,7 @@
         <v>-6.989882536007505</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>-2.815356062425539</v>
+        <v>-2.815356062425536</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>1.93701657733541</v>
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-3.959192698699817</v>
+        <v>-4.121466947140222</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-7.651362108258858</v>
+        <v>-7.361431609222989</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-6.502013430972448</v>
+        <v>-6.553324514888599</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1.002231980625494</v>
+        <v>0.762185233505954</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-10.18111742097108</v>
+        <v>-10.37850977427561</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-5.924348036146684</v>
+        <v>-5.976659259045033</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-0.3320110490332343</v>
+        <v>-0.6837131796250137</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-8.076395405818015</v>
+        <v>-8.284866857300063</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-5.284750676219989</v>
+        <v>-5.229083914299651</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>2.218539414305343</v>
+        <v>1.736812610700064</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>-1.95850037395032</v>
+        <v>-2.09019117656317</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>-1.037020891578973</v>
+        <v>-1.082413656721209</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>8.888867431298239</v>
+        <v>8.600328296921502</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>-3.43074221217167</v>
+        <v>-3.32782033781174</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.1591589201218239</v>
+        <v>0.2374189331345069</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>4.26576439093804</v>
+        <v>4.457189581516099</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>-3.74856954181268</v>
+        <v>-3.810912692301854</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>-1.150582448919019</v>
+        <v>-1.161435797791787</v>
       </c>
     </row>
     <row r="19">
@@ -1188,7 +1188,7 @@
         <v>-0.3802291064163133</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>-0.1531471114636573</v>
+        <v>-0.1531471114636572</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>0.1257893878176548</v>
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.2779880512641438</v>
+        <v>-0.2901835770057692</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.5387533991372938</v>
+        <v>-0.5312817493403204</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.4554054833730291</v>
+        <v>-0.4548481371438909</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>0.03650683262022363</v>
+        <v>0.03202052868016556</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.5078809794825598</v>
+        <v>-0.5154268068794526</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.2953434024641021</v>
+        <v>-0.2927274480544186</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.02093214678193123</v>
+        <v>-0.04426495507574699</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.4940603863872911</v>
+        <v>-0.5036304206007143</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.3170410363602151</v>
+        <v>-0.3138935800015743</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.1936331282489832</v>
+        <v>0.1518790467065832</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>-0.1665811970005035</v>
+        <v>-0.1632035968327433</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>-0.08247813941633202</v>
+        <v>-0.08976719231429882</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.5317077217683235</v>
+        <v>0.5096874723523096</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>-0.2039648778612297</v>
+        <v>-0.1847904459765886</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.00866486090592998</v>
+        <v>0.01740777020305722</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2931574960927212</v>
+        <v>0.3111207665138187</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>-0.2538857223306271</v>
+        <v>-0.2631712916765074</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>-0.07917855026382373</v>
+        <v>-0.07850070926297623</v>
       </c>
     </row>
     <row r="22">
@@ -1306,7 +1306,7 @@
         <v>-6.596297319089858</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>2.605940002571988</v>
+        <v>2.605940002571991</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-8.044157331300521</v>
+        <v>-8.175567712231913</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-14.73206883104098</v>
+        <v>-14.57168058643751</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-2.581331806163495</v>
+        <v>-2.522420167952904</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-5.083764802724635</v>
+        <v>-4.509269366126729</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-9.136237954679578</v>
+        <v>-8.9324793779166</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-2.090401247545193</v>
+        <v>-1.741916376163713</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-4.988282643540412</v>
+        <v>-4.716545177235083</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-10.26374009005143</v>
+        <v>-9.907216997337736</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-1.092941906823395</v>
+        <v>-0.6224075297389708</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>1.468302080490421</v>
+        <v>1.623718688396252</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>-5.687922553298535</v>
+        <v>-5.819504674680352</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>6.150604402884802</v>
+        <v>6.345633952268202</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>6.636775759033819</v>
+        <v>7.17242866017809</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>1.985996411256049</v>
+        <v>1.936651390717698</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>7.650663274763501</v>
+        <v>8.064400966199882</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>3.080554276416978</v>
+        <v>2.820483825329663</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>-3.203320690925241</v>
+        <v>-3.055423371103005</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>5.674921681492958</v>
+        <v>5.878827531344457</v>
       </c>
     </row>
     <row r="25">
@@ -1411,7 +1411,7 @@
         <v>-0.3562650533560171</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>0.1407464383650596</v>
+        <v>0.1407464383650598</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.4275959443057254</v>
+        <v>-0.4271916856663169</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.7489260652400802</v>
+        <v>-0.7447260971992142</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.1349759699522784</v>
+        <v>-0.1296314026449487</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.2129802790747487</v>
+        <v>-0.1870716810781307</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.3722823842024546</v>
+        <v>-0.3676705565797496</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.08578906662576359</v>
+        <v>-0.06776356975674297</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.248415792709154</v>
+        <v>-0.2329844572811322</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.4928621530167105</v>
+        <v>-0.4859950370062845</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.05620177211844623</v>
+        <v>-0.03101290470754544</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.1139542280944174</v>
+        <v>0.1211733387851116</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>-0.4009870755094602</v>
+        <v>-0.3871574801599089</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.4496456253322421</v>
+        <v>0.4496875786322266</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.3583821185360631</v>
+        <v>0.4103255233172721</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.1062587072045574</v>
+        <v>0.12177280061479</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.4388467511865136</v>
+        <v>0.4833132042982103</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.1805600722510822</v>
+        <v>0.1731554678929673</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>-0.1908386514773038</v>
+        <v>-0.1718397075882168</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.3515805030300126</v>
+        <v>0.3739271324842885</v>
       </c>
     </row>
     <row r="28">
@@ -1520,7 +1520,7 @@
         <v>-5.344396208471322</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>-2.91534448906349</v>
+        <v>-2.915344489063493</v>
       </c>
     </row>
     <row r="29">
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-2.888597789319699</v>
+        <v>-2.922523692528822</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-6.941748522242502</v>
+        <v>-7.011104365905616</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-5.18277264836501</v>
+        <v>-5.179106217658679</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>1.482182257751381</v>
+        <v>1.848551235927403</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-7.634832092402581</v>
+        <v>-7.426564699683006</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-4.369703658722841</v>
+        <v>-4.404948411865584</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-0.0211409922119644</v>
+        <v>0.07549266200145061</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-6.684531551812964</v>
+        <v>-6.650634954804372</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-4.193905602537624</v>
+        <v>-4.196494546930383</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.741712655092417</v>
+        <v>0.6948272098326644</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>-3.380590991870811</v>
+        <v>-3.528916704163501</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>-1.456055617752727</v>
+        <v>-1.710371039549651</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>5.741889436662856</v>
+        <v>5.921139110234154</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>-3.574885866598297</v>
+        <v>-3.520033377162478</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>-0.6696606675430882</v>
+        <v>-0.7435901847273302</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>2.818256316363652</v>
+        <v>2.891921305321615</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>-4.09706377359627</v>
+        <v>-4.044094167500976</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>-1.581508444332917</v>
+        <v>-1.602211570395386</v>
       </c>
     </row>
     <row r="31">
@@ -1625,7 +1625,7 @@
         <v>-0.2736746640004482</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>-0.1492883185242403</v>
+        <v>-0.1492883185242404</v>
       </c>
     </row>
     <row r="32">
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.1625011024064204</v>
+        <v>-0.1664524794703455</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.3923746587634385</v>
+        <v>-0.3889036724377791</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.2935986200383301</v>
+        <v>-0.2920081369726292</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>0.06203088027212574</v>
+        <v>0.07960784426474511</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.3262075595928873</v>
+        <v>-0.321146816743953</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.1884234822823218</v>
+        <v>-0.1905208101370991</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.001086590001012841</v>
+        <v>0.003603838600245988</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.3319177795668861</v>
+        <v>-0.3300163070178787</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.2069622178438532</v>
+        <v>-0.2078646609136246</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.04626410793087315</v>
+        <v>0.0434290777276207</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>-0.2151757060599904</v>
+        <v>-0.2196267437311994</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>-0.09254576749780752</v>
+        <v>-0.1037391119111723</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.2670970444867784</v>
+        <v>0.2792602159426971</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>-0.1691794138546311</v>
+        <v>-0.1698137131519393</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>-0.03134969904969101</v>
+        <v>-0.0359276973204506</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.1493706639864808</v>
+        <v>0.1521528047220793</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>-0.2150714577291271</v>
+        <v>-0.2138752405888641</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>-0.08447970904278099</v>
+        <v>-0.08570622902414071</v>
       </c>
     </row>
     <row r="34">
